--- a/data/trans_bre/P26-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P26-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 12,96</t>
+          <t>-1,19; 12,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 10,43</t>
+          <t>-4,62; 10,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 10,32</t>
+          <t>-2,22; 10,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 4,88</t>
+          <t>-3,21; 4,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 67,39</t>
+          <t>-5,31; 63,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 41,36</t>
+          <t>-14,36; 43,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 64,13</t>
+          <t>-10,37; 65,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 72,81</t>
+          <t>-27,68; 66,51</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 20,48</t>
+          <t>6,52; 20,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 13,54</t>
+          <t>-1,36; 12,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 9,05</t>
+          <t>-2,76; 9,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 8,24</t>
+          <t>-1,67; 7,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,42; 109,31</t>
+          <t>23,63; 104,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 58,7</t>
+          <t>-5,48; 55,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 53,18</t>
+          <t>-11,82; 56,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 124,59</t>
+          <t>-14,96; 116,97</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 24,55</t>
+          <t>6,45; 24,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 17,51</t>
+          <t>2,44; 17,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 3,99</t>
+          <t>-11,42; 4,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-71,44; 1,51</t>
+          <t>-74,39; 1,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,66; 91,93</t>
+          <t>21,43; 95,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 56,99</t>
+          <t>6,51; 54,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,77; 17,36</t>
+          <t>-41,57; 20,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-94,18; 15,51</t>
+          <t>-95,25; 21,19</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 19,21</t>
+          <t>8,81; 18,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 13,58</t>
+          <t>3,88; 13,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 7,4</t>
+          <t>-1,21; 7,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 6,32</t>
+          <t>-6,9; 6,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,52; 73,39</t>
+          <t>29,77; 69,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,32; 43,1</t>
+          <t>10,98; 43,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 28,72</t>
+          <t>-4,27; 29,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,55; 50,55</t>
+          <t>-45,78; 52,71</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 18,62</t>
+          <t>4,85; 18,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 13,34</t>
+          <t>1,94; 13,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 10,87</t>
+          <t>1,04; 11,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 4,49</t>
+          <t>-5,47; 4,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,09; 67,17</t>
+          <t>12,72; 65,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 44,8</t>
+          <t>5,09; 44,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,65; 52,03</t>
+          <t>3,69; 50,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 40,76</t>
+          <t>-32,04; 38,7</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,99; -6,71</t>
+          <t>-19,59; -6,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 2,2</t>
+          <t>-12,11; 1,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,1; -3,81</t>
+          <t>-16,98; -4,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 4,74</t>
+          <t>-12,57; 4,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,61; -16,54</t>
+          <t>-38,61; -17,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 5,86</t>
+          <t>-25,21; 4,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,55; -13,98</t>
+          <t>-41,78; -13,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,34; 56,07</t>
+          <t>-53,51; 49,24</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,76</t>
+          <t>5,96; 10,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,64; 8,39</t>
+          <t>3,69; 8,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,71</t>
+          <t>-0,78; 3,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 2,1</t>
+          <t>-23,53; 2,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,33; 39,31</t>
+          <t>19,88; 39,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,63; 26,42</t>
+          <t>10,85; 26,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 15,47</t>
+          <t>-2,96; 14,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-69,09; 18,07</t>
+          <t>-68,74; 17,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P26-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P26-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
